--- a/datamares/CLR/CLR_datamares_promonitor.xlsx
+++ b/datamares/CLR/CLR_datamares_promonitor.xlsx
@@ -2985,7 +2985,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3113,14 +3113,14 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value" error="Please select a value from the drop-down list" prompt="Please select a header from the drop-down list" sqref="D1:E1"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="7">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Please choose a value from the dropdown list" prompt="Please choose a value from the dropdown list">
           <x14:formula1>
             <xm:f>'CV values'!$C$2:$C$15</xm:f>

--- a/datamares/CLR/CLR_datamares_promonitor.xlsx
+++ b/datamares/CLR/CLR_datamares_promonitor.xlsx
@@ -1919,9 +1919,6 @@
     <t>Scripps Institution of Oceanography</t>
   </si>
   <si>
-    <t>2016</t>
-  </si>
-  <si>
     <t>The dataMares Collection contains a selection of datasets associated with specific "stories", or topics, at http://datamares.ucsd.edu. Within the landing pages for each dataset in this collection, links to the associated stories are provided under Related Resource. Likewise, links to the datasets herein are provided on the story pages at the dataMares website. Additionally, the dataMares Projects (e.g., Fisheries, Mangroves, Proyecto Manta) are represented here as subcollections, each containing a subset of the data contained within the umbrella of the dataMares Collection.
 This collection is a work in progress. Datasets will be added as they are compiled and contributed to http://datamares.ucsd.edu.</t>
   </si>
@@ -1954,6 +1951,9 @@
   </si>
   <si>
     <t>Environmental monitoring</t>
+  </si>
+  <si>
+    <t>2017</t>
   </si>
 </sst>
 </file>
@@ -2984,8 +2984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3064,7 +3064,7 @@
         <v>630</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>472</v>
@@ -3076,40 +3076,40 @@
         <v>432</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>631</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="M2" t="s">
+        <v>634</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="M2" t="s">
-        <v>635</v>
-      </c>
-      <c r="N2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>634</v>
-      </c>
       <c r="Q2" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
